--- a/Questions/girlIdol.xlsx
+++ b/Questions/girlIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FF683-B2B9-A34F-9DC1-7ECFD2B3758A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530E715-4C2B-DB42-A072-A861481E7ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원더걸즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에프터스쿨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투애니원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +237,173 @@
   <si>
     <t>마마무</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdxvD7r58ng</t>
+  </si>
+  <si>
+    <t>XQSse3b2ge4</t>
+  </si>
+  <si>
+    <t>nnVjsos40qk</t>
+  </si>
+  <si>
+    <t>HPQ5mqovXHo</t>
+  </si>
+  <si>
+    <t>rRzxEiBLQCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4JJFrjkRxmo</t>
+  </si>
+  <si>
+    <t>W761DtH1oRg</t>
+  </si>
+  <si>
+    <t>uR8Mrt1IpXg</t>
+  </si>
+  <si>
+    <t>jeI992mvlEY</t>
+  </si>
+  <si>
+    <t>6SwiSpudKWI</t>
+  </si>
+  <si>
+    <t>ioNng23DkIM</t>
+  </si>
+  <si>
+    <t>F4oHuML9U2A</t>
+  </si>
+  <si>
+    <t>MEmHy9OIzLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9QTZCB2Ujr8</t>
+  </si>
+  <si>
+    <t>1nvnQcr3CqY</t>
+  </si>
+  <si>
+    <t>8Vto_qUIjcA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리스틴브이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리스틴, 프리스틴V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4CTGxKIzD7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txWmd7QKFe8</t>
+  </si>
+  <si>
+    <t>XjYCYEerg1Q</t>
+  </si>
+  <si>
+    <t>네이처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRN12TaTFlU</t>
+  </si>
+  <si>
+    <t>lsK1b8vt0_c</t>
+  </si>
+  <si>
+    <t>zSyThA4WEn4</t>
+  </si>
+  <si>
+    <t>걸스데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hfXZ6ydgZyo</t>
+  </si>
+  <si>
+    <t>EEEIN-mtN6c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h1SixKJSKs</t>
+  </si>
+  <si>
+    <t>j7TYiyEhxdI</t>
+  </si>
+  <si>
+    <t>zO9RzrhYR-I</t>
+  </si>
+  <si>
+    <t>피에스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0meMvE_7i1s</t>
+  </si>
+  <si>
+    <t>3BpnB47Fxts</t>
+  </si>
+  <si>
+    <t>mSau9Fz5KWY</t>
+  </si>
+  <si>
+    <t>m3ydJMw5loU</t>
+  </si>
+  <si>
+    <t>원더걸스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYGODWJgR-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gdmq0L6NDIs</t>
+  </si>
+  <si>
+    <t>오렌지캬라멜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxxoq7uqnbU</t>
+  </si>
+  <si>
+    <t>xD6VjvfcBIs</t>
+  </si>
+  <si>
+    <t>레이디스코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGe0hHvAGkc</t>
+  </si>
+  <si>
+    <t>aNYImwBU4f4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9txzvu6eQuw</t>
+  </si>
+  <si>
+    <t>0FB2EoKTK_Q</t>
+  </si>
+  <si>
+    <t>있지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITZY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pNfTK39k55U</t>
   </si>
 </sst>
 </file>
@@ -608,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF8C64-B11C-3A4A-B95B-1A02E237DE75}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -636,6 +795,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -644,11 +809,23 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>145</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -657,6 +834,12 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>151</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -665,6 +848,12 @@
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>121</v>
+      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -673,16 +862,34 @@
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -691,16 +898,34 @@
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>107</v>
+      </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>131</v>
+      </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>146</v>
+      </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -709,6 +934,12 @@
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -717,6 +948,12 @@
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -725,16 +962,34 @@
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
@@ -742,27 +997,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>62</v>
+      </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>62</v>
+      </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>103</v>
+      </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -770,17 +1055,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>73</v>
+      </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>73</v>
+      </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>81</v>
+      </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
@@ -788,17 +1091,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>78</v>
+      </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
@@ -806,48 +1127,162 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
       <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>52</v>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/girlIdol.xlsx
+++ b/Questions/girlIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530E715-4C2B-DB42-A072-A861481E7ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82295BC0-B386-E742-A877-D7D056B547E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>answer keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이오아이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,6 +400,10 @@
   </si>
   <si>
     <t>pNfTK39k55U</t>
+  </si>
+  <si>
+    <t>answerKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF8C64-B11C-3A4A-B95B-1A02E237DE75}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -791,502 +791,503 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>110</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>151</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>121</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>45</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>146</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>96</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>103</v>
       </c>
       <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
         <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>19</v>
       </c>
       <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>76</v>
       </c>
       <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>58</v>
       </c>
       <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
         <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40">
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
         <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions/girlIdol.xlsx
+++ b/Questions/girlIdol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82295BC0-B386-E742-A877-D7D056B547E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9F0571-9BB2-AF4A-843C-53FB77F2B23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4JJFrjkRxmo</t>
-  </si>
-  <si>
     <t>W761DtH1oRg</t>
   </si>
   <si>
@@ -301,16 +298,10 @@
     <t>txWmd7QKFe8</t>
   </si>
   <si>
-    <t>XjYCYEerg1Q</t>
-  </si>
-  <si>
     <t>네이처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QRN12TaTFlU</t>
-  </si>
-  <si>
     <t>lsK1b8vt0_c</t>
   </si>
   <si>
@@ -403,6 +394,16 @@
   </si>
   <si>
     <t>answerKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDjQSdN_ig8</t>
+  </si>
+  <si>
+    <t>YzHTdhbhhao</t>
+  </si>
+  <si>
+    <t>IRUNTOqCmAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF8C64-B11C-3A4A-B95B-1A02E237DE75}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -791,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -863,7 +864,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -874,7 +875,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -885,7 +886,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -899,7 +900,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>107</v>
@@ -910,7 +911,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>131</v>
@@ -921,7 +922,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>146</v>
@@ -935,7 +936,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>96</v>
@@ -949,7 +950,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -963,7 +964,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -974,7 +975,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>47</v>
@@ -985,7 +986,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -999,7 +1000,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -1010,7 +1011,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1021,7 +1022,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>62</v>
@@ -1032,7 +1033,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>62</v>
@@ -1043,7 +1044,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>103</v>
@@ -1057,7 +1058,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>73</v>
@@ -1068,7 +1069,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>73</v>
@@ -1079,7 +1080,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>81</v>
@@ -1093,7 +1094,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>44</v>
@@ -1115,7 +1116,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>19</v>
@@ -1129,18 +1130,18 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -1151,13 +1152,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -1165,7 +1166,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32">
         <v>76</v>
@@ -1179,7 +1180,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33">
         <v>21</v>
@@ -1190,7 +1191,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1204,7 +1205,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <v>79</v>
@@ -1215,74 +1216,74 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>58</v>
       </c>
       <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
         <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B38">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/girlIdol.xlsx
+++ b/Questions/girlIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9F0571-9BB2-AF4A-843C-53FB77F2B23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C28B6A-164E-2548-A559-02F8838E08E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,21 @@
   </si>
   <si>
     <t>IRUNTOqCmAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGnLdUJbYmQ</t>
+  </si>
+  <si>
+    <t>우주소녀 쪼꼬미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주소녀쪼꼬미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF8C64-B11C-3A4A-B95B-1A02E237DE75}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="66" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -781,509 +796,649 @@
     <col min="3" max="4" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>107</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>131</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>146</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>109</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>23</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/girlIdol.xlsx
+++ b/Questions/girlIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C28B6A-164E-2548-A559-02F8838E08E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83744AF1-D3CB-2746-B718-8BCBAD52FFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{D69C574B-2446-1440-BF5C-67EC254F5BC4}"/>
   </bookViews>
@@ -372,10 +372,6 @@
     <t>NGe0hHvAGkc</t>
   </si>
   <si>
-    <t>aNYImwBU4f4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9txzvu6eQuw</t>
   </si>
   <si>
@@ -420,6 +416,9 @@
   <si>
     <t>우주소녀쪼꼬미</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aYVIvd68Ka0</t>
   </si>
 </sst>
 </file>
@@ -785,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBF8C64-B11C-3A4A-B95B-1A02E237DE75}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="66" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -798,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -810,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -900,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1083,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1294,10 +1293,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -1308,7 +1307,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -1325,7 +1324,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>79</v>
@@ -1356,7 +1355,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>67</v>
@@ -1412,16 +1411,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>23</v>
       </c>
       <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1429,16 +1428,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
